--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Sema4d-Cd72.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Sema4d-Cd72.xlsx
@@ -537,22 +537,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.1349983333333333</v>
+        <v>2.013924666666667</v>
       </c>
       <c r="H2">
-        <v>0.404995</v>
+        <v>6.041774</v>
       </c>
       <c r="I2">
-        <v>0.0004324871779904459</v>
+        <v>0.007485295459218955</v>
       </c>
       <c r="J2">
-        <v>0.0004324871779904459</v>
+        <v>0.007485295459218957</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.626869333333333</v>
+        <v>1.981537333333333</v>
       </c>
       <c r="N2">
-        <v>4.880608</v>
+        <v>5.944611999999999</v>
       </c>
       <c r="O2">
-        <v>0.01925936046061199</v>
+        <v>0.09388596190542853</v>
       </c>
       <c r="P2">
-        <v>0.01925936046061199</v>
+        <v>0.09388596190542853</v>
       </c>
       <c r="Q2">
-        <v>0.2196246485511111</v>
+        <v>3.990666913520888</v>
       </c>
       <c r="R2">
-        <v>1.97662183696</v>
+        <v>35.916002221688</v>
       </c>
       <c r="S2">
-        <v>8.329426455510856E-06</v>
+        <v>0.0007027641643351079</v>
       </c>
       <c r="T2">
-        <v>8.329426455510854E-06</v>
+        <v>0.0007027641643351081</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.1349983333333333</v>
+        <v>2.013924666666667</v>
       </c>
       <c r="H3">
-        <v>0.404995</v>
+        <v>6.041774</v>
       </c>
       <c r="I3">
-        <v>0.0004324871779904459</v>
+        <v>0.007485295459218955</v>
       </c>
       <c r="J3">
-        <v>0.0004324871779904459</v>
+        <v>0.007485295459218957</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -629,22 +629,22 @@
         <v>1.538978</v>
       </c>
       <c r="O3">
-        <v>0.006072958951620726</v>
+        <v>0.02430577973487464</v>
       </c>
       <c r="P3">
-        <v>0.006072958951620726</v>
+        <v>0.02430577973487464</v>
       </c>
       <c r="Q3">
-        <v>0.06925315501222223</v>
+        <v>1.033128585219111</v>
       </c>
       <c r="R3">
-        <v>0.62327839511</v>
+        <v>9.298157266972002</v>
       </c>
       <c r="S3">
-        <v>2.626476879038265E-06</v>
+        <v>0.0001819359426822333</v>
       </c>
       <c r="T3">
-        <v>2.626476879038265E-06</v>
+        <v>0.0001819359426822333</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,22 +661,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.1349983333333333</v>
+        <v>2.013924666666667</v>
       </c>
       <c r="H4">
-        <v>0.404995</v>
+        <v>6.041774</v>
       </c>
       <c r="I4">
-        <v>0.0004324871779904459</v>
+        <v>0.007485295459218955</v>
       </c>
       <c r="J4">
-        <v>0.0004324871779904459</v>
+        <v>0.007485295459218957</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>25.132292</v>
+        <v>4.566049333333334</v>
       </c>
       <c r="N4">
-        <v>75.39687599999999</v>
+        <v>13.698148</v>
       </c>
       <c r="O4">
-        <v>0.297523507826907</v>
+        <v>0.2163410835396696</v>
       </c>
       <c r="P4">
-        <v>0.297523507826907</v>
+        <v>0.2163410835396696</v>
       </c>
       <c r="Q4">
-        <v>3.392817532846666</v>
+        <v>9.195679381616889</v>
       </c>
       <c r="R4">
-        <v>30.53535779562</v>
+        <v>82.76111443455201</v>
       </c>
       <c r="S4">
-        <v>0.0001286751022858774</v>
+        <v>0.001619376930261997</v>
       </c>
       <c r="T4">
-        <v>0.0001286751022858774</v>
+        <v>0.001619376930261998</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,22 +723,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.1349983333333333</v>
+        <v>2.013924666666667</v>
       </c>
       <c r="H5">
-        <v>0.404995</v>
+        <v>6.041774</v>
       </c>
       <c r="I5">
-        <v>0.0004324871779904459</v>
+        <v>0.007485295459218955</v>
       </c>
       <c r="J5">
-        <v>0.0004324871779904459</v>
+        <v>0.007485295459218957</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.234417666666667</v>
+        <v>0.6187626666666666</v>
       </c>
       <c r="N5">
-        <v>3.703253</v>
+        <v>1.856288</v>
       </c>
       <c r="O5">
-        <v>0.01461340152781021</v>
+        <v>0.029317200929767</v>
       </c>
       <c r="P5">
-        <v>0.01461340152781021</v>
+        <v>0.029317200929767</v>
       </c>
       <c r="Q5">
-        <v>0.1666443276372222</v>
+        <v>1.246141397212444</v>
       </c>
       <c r="R5">
-        <v>1.499798948735</v>
+        <v>11.215272574912</v>
       </c>
       <c r="S5">
-        <v>6.32010878760391E-06</v>
+        <v>0.0002194479109965947</v>
       </c>
       <c r="T5">
-        <v>6.32010878760391E-06</v>
+        <v>0.0002194479109965947</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,22 +785,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.1349983333333333</v>
+        <v>2.013924666666667</v>
       </c>
       <c r="H6">
-        <v>0.404995</v>
+        <v>6.041774</v>
       </c>
       <c r="I6">
-        <v>0.0004324871779904459</v>
+        <v>0.007485295459218955</v>
       </c>
       <c r="J6">
-        <v>0.0004324871779904459</v>
+        <v>0.007485295459218957</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.126792</v>
+        <v>3.130812333333334</v>
       </c>
       <c r="N6">
-        <v>6.380376</v>
+        <v>9.392437000000001</v>
       </c>
       <c r="O6">
-        <v>0.02517759288560723</v>
+        <v>0.1483390307695671</v>
       </c>
       <c r="P6">
-        <v>0.02517759288560722</v>
+        <v>0.1483390307695671</v>
       </c>
       <c r="Q6">
-        <v>0.2871133753466666</v>
+        <v>6.305220184804222</v>
       </c>
       <c r="R6">
-        <v>2.58402037812</v>
+        <v>56.74698166323801</v>
       </c>
       <c r="S6">
-        <v>1.08889860956886E-05</v>
+        <v>0.001110361473444381</v>
       </c>
       <c r="T6">
-        <v>1.08889860956886E-05</v>
+        <v>0.001110361473444381</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,22 +847,22 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.1349983333333333</v>
+        <v>2.013924666666667</v>
       </c>
       <c r="H7">
-        <v>0.404995</v>
+        <v>6.041774</v>
       </c>
       <c r="I7">
-        <v>0.0004324871779904459</v>
+        <v>0.007485295459218955</v>
       </c>
       <c r="J7">
-        <v>0.0004324871779904459</v>
+        <v>0.007485295459218957</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>53.838254</v>
+        <v>10.295635</v>
       </c>
       <c r="N7">
-        <v>161.514762</v>
+        <v>30.886905</v>
       </c>
       <c r="O7">
-        <v>0.6373531783474429</v>
+        <v>0.4878109431206931</v>
       </c>
       <c r="P7">
-        <v>0.6373531783474428</v>
+        <v>0.4878109431206932</v>
       </c>
       <c r="Q7">
-        <v>7.268074559576666</v>
+        <v>20.73463328549666</v>
       </c>
       <c r="R7">
-        <v>65.41267103618999</v>
+        <v>186.61169956947</v>
       </c>
       <c r="S7">
-        <v>0.000275647077486727</v>
+        <v>0.00365140903749864</v>
       </c>
       <c r="T7">
-        <v>0.0002756470774867269</v>
+        <v>0.003651409037498641</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,13 +918,13 @@
         <v>1.448602</v>
       </c>
       <c r="H8">
-        <v>4.345806</v>
+        <v>4.345806000000001</v>
       </c>
       <c r="I8">
-        <v>0.004640811301457914</v>
+        <v>0.005384120941704621</v>
       </c>
       <c r="J8">
-        <v>0.004640811301457913</v>
+        <v>0.005384120941704621</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.626869333333333</v>
+        <v>1.981537333333333</v>
       </c>
       <c r="N8">
-        <v>4.880608</v>
+        <v>5.944611999999999</v>
       </c>
       <c r="O8">
-        <v>0.01925936046061199</v>
+        <v>0.09388596190542853</v>
       </c>
       <c r="P8">
-        <v>0.01925936046061199</v>
+        <v>0.09388596190542853</v>
       </c>
       <c r="Q8">
-        <v>2.356686170005333</v>
+        <v>2.870458944141333</v>
       </c>
       <c r="R8">
-        <v>21.210175530048</v>
+        <v>25.834130497272</v>
       </c>
       <c r="S8">
-        <v>8.937905768445983E-05</v>
+        <v>0.0005054933736270999</v>
       </c>
       <c r="T8">
-        <v>8.93790576844598E-05</v>
+        <v>0.0005054933736271001</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,13 +980,13 @@
         <v>1.448602</v>
       </c>
       <c r="H9">
-        <v>4.345806</v>
+        <v>4.345806000000001</v>
       </c>
       <c r="I9">
-        <v>0.004640811301457914</v>
+        <v>0.005384120941704621</v>
       </c>
       <c r="J9">
-        <v>0.004640811301457913</v>
+        <v>0.005384120941704621</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -1001,22 +1001,22 @@
         <v>1.538978</v>
       </c>
       <c r="O9">
-        <v>0.006072958951620726</v>
+        <v>0.02430577973487464</v>
       </c>
       <c r="P9">
-        <v>0.006072958951620726</v>
+        <v>0.02430577973487464</v>
       </c>
       <c r="Q9">
-        <v>0.7431222029186668</v>
+        <v>0.7431222029186669</v>
       </c>
       <c r="R9">
-        <v>6.688099826268</v>
+        <v>6.688099826268002</v>
       </c>
       <c r="S9">
-        <v>2.818345653597147E-05</v>
+        <v>0.0001308652576749983</v>
       </c>
       <c r="T9">
-        <v>2.818345653597146E-05</v>
+        <v>0.0001308652576749984</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,13 +1042,13 @@
         <v>1.448602</v>
       </c>
       <c r="H10">
-        <v>4.345806</v>
+        <v>4.345806000000001</v>
       </c>
       <c r="I10">
-        <v>0.004640811301457914</v>
+        <v>0.005384120941704621</v>
       </c>
       <c r="J10">
-        <v>0.004640811301457913</v>
+        <v>0.005384120941704621</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>25.132292</v>
+        <v>4.566049333333334</v>
       </c>
       <c r="N10">
-        <v>75.39687599999999</v>
+        <v>13.698148</v>
       </c>
       <c r="O10">
-        <v>0.297523507826907</v>
+        <v>0.2163410835396696</v>
       </c>
       <c r="P10">
-        <v>0.297523507826907</v>
+        <v>0.2163410835396696</v>
       </c>
       <c r="Q10">
-        <v>36.40668845578399</v>
+        <v>6.614388196365335</v>
       </c>
       <c r="R10">
-        <v>327.6601961020559</v>
+        <v>59.52949376728802</v>
       </c>
       <c r="S10">
-        <v>0.001380750457572512</v>
+        <v>0.001164806558437004</v>
       </c>
       <c r="T10">
-        <v>0.001380750457572512</v>
+        <v>0.001164806558437004</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,13 +1104,13 @@
         <v>1.448602</v>
       </c>
       <c r="H11">
-        <v>4.345806</v>
+        <v>4.345806000000001</v>
       </c>
       <c r="I11">
-        <v>0.004640811301457914</v>
+        <v>0.005384120941704621</v>
       </c>
       <c r="J11">
-        <v>0.004640811301457913</v>
+        <v>0.005384120941704621</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.234417666666667</v>
+        <v>0.6187626666666666</v>
       </c>
       <c r="N11">
-        <v>3.703253</v>
+        <v>1.856288</v>
       </c>
       <c r="O11">
-        <v>0.01461340152781021</v>
+        <v>0.029317200929767</v>
       </c>
       <c r="P11">
-        <v>0.01461340152781021</v>
+        <v>0.029317200929767</v>
       </c>
       <c r="Q11">
-        <v>1.788179900768667</v>
+        <v>0.8963408364586666</v>
       </c>
       <c r="R11">
-        <v>16.093619106918</v>
+        <v>8.067067528128</v>
       </c>
       <c r="S11">
-        <v>6.781803896300399E-05</v>
+        <v>0.0001578473554781207</v>
       </c>
       <c r="T11">
-        <v>6.781803896300397E-05</v>
+        <v>0.0001578473554781207</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1166,13 +1166,13 @@
         <v>1.448602</v>
       </c>
       <c r="H12">
-        <v>4.345806</v>
+        <v>4.345806000000001</v>
       </c>
       <c r="I12">
-        <v>0.004640811301457914</v>
+        <v>0.005384120941704621</v>
       </c>
       <c r="J12">
-        <v>0.004640811301457913</v>
+        <v>0.005384120941704621</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.126792</v>
+        <v>3.130812333333334</v>
       </c>
       <c r="N12">
-        <v>6.380376</v>
+        <v>9.392437000000001</v>
       </c>
       <c r="O12">
-        <v>0.02517759288560723</v>
+        <v>0.1483390307695671</v>
       </c>
       <c r="P12">
-        <v>0.02517759288560722</v>
+        <v>0.1483390307695671</v>
       </c>
       <c r="Q12">
-        <v>3.080875144784</v>
+        <v>4.535301007691334</v>
       </c>
       <c r="R12">
-        <v>27.727876303056</v>
+        <v>40.81770906922201</v>
       </c>
       <c r="S12">
-        <v>0.0001168444576070324</v>
+        <v>0.0007986752820385921</v>
       </c>
       <c r="T12">
-        <v>0.0001168444576070324</v>
+        <v>0.0007986752820385922</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1228,13 +1228,13 @@
         <v>1.448602</v>
       </c>
       <c r="H13">
-        <v>4.345806</v>
+        <v>4.345806000000001</v>
       </c>
       <c r="I13">
-        <v>0.004640811301457914</v>
+        <v>0.005384120941704621</v>
       </c>
       <c r="J13">
-        <v>0.004640811301457913</v>
+        <v>0.005384120941704621</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>53.838254</v>
+        <v>10.295635</v>
       </c>
       <c r="N13">
-        <v>161.514762</v>
+        <v>30.886905</v>
       </c>
       <c r="O13">
-        <v>0.6373531783474429</v>
+        <v>0.4878109431206931</v>
       </c>
       <c r="P13">
-        <v>0.6373531783474428</v>
+        <v>0.4878109431206932</v>
       </c>
       <c r="Q13">
-        <v>77.99020242090799</v>
+        <v>14.91427745227</v>
       </c>
       <c r="R13">
-        <v>701.9118217881719</v>
+        <v>134.22849707043</v>
       </c>
       <c r="S13">
-        <v>0.002957835833094934</v>
+        <v>0.002626433114448806</v>
       </c>
       <c r="T13">
-        <v>0.002957835833094933</v>
+        <v>0.002626433114448806</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>63.544816</v>
+        <v>56.20026033333333</v>
       </c>
       <c r="H14">
-        <v>190.634448</v>
+        <v>168.600781</v>
       </c>
       <c r="I14">
-        <v>0.2035752402950318</v>
+        <v>0.2088834604604656</v>
       </c>
       <c r="J14">
-        <v>0.2035752402950319</v>
+        <v>0.2088834604604657</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.626869333333333</v>
+        <v>1.981537333333333</v>
       </c>
       <c r="N14">
-        <v>4.880608</v>
+        <v>5.944611999999999</v>
       </c>
       <c r="O14">
-        <v>0.01925936046061199</v>
+        <v>0.09388596190542853</v>
       </c>
       <c r="P14">
-        <v>0.01925936046061199</v>
+        <v>0.09388596190542853</v>
       </c>
       <c r="Q14">
-        <v>103.3791124427093</v>
+        <v>111.3629139935524</v>
       </c>
       <c r="R14">
-        <v>930.412011984384</v>
+        <v>1002.266225941972</v>
       </c>
       <c r="S14">
-        <v>0.003920728933697721</v>
+        <v>0.01961122461146536</v>
       </c>
       <c r="T14">
-        <v>0.003920728933697721</v>
+        <v>0.01961122461146537</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>63.544816</v>
+        <v>56.20026033333333</v>
       </c>
       <c r="H15">
-        <v>190.634448</v>
+        <v>168.600781</v>
       </c>
       <c r="I15">
-        <v>0.2035752402950318</v>
+        <v>0.2088834604604656</v>
       </c>
       <c r="J15">
-        <v>0.2035752402950319</v>
+        <v>0.2088834604604657</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1373,22 +1373,22 @@
         <v>1.538978</v>
       </c>
       <c r="O15">
-        <v>0.006072958951620726</v>
+        <v>0.02430577973487464</v>
       </c>
       <c r="P15">
-        <v>0.006072958951620726</v>
+        <v>0.02430577973487464</v>
       </c>
       <c r="Q15">
-        <v>32.59802461268268</v>
+        <v>28.83032141575756</v>
       </c>
       <c r="R15">
-        <v>293.3822215141441</v>
+        <v>259.472892741818</v>
       </c>
       <c r="S15">
-        <v>0.001236304077878054</v>
+        <v>0.005077075380210475</v>
       </c>
       <c r="T15">
-        <v>0.001236304077878054</v>
+        <v>0.005077075380210475</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>63.544816</v>
+        <v>56.20026033333333</v>
       </c>
       <c r="H16">
-        <v>190.634448</v>
+        <v>168.600781</v>
       </c>
       <c r="I16">
-        <v>0.2035752402950318</v>
+        <v>0.2088834604604656</v>
       </c>
       <c r="J16">
-        <v>0.2035752402950319</v>
+        <v>0.2088834604604657</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>25.132292</v>
+        <v>4.566049333333334</v>
       </c>
       <c r="N16">
-        <v>75.39687599999999</v>
+        <v>13.698148</v>
       </c>
       <c r="O16">
-        <v>0.297523507826907</v>
+        <v>0.2163410835396696</v>
       </c>
       <c r="P16">
-        <v>0.297523507826907</v>
+        <v>0.2163410835396696</v>
       </c>
       <c r="Q16">
-        <v>1597.026870798272</v>
+        <v>256.6131612281764</v>
       </c>
       <c r="R16">
-        <v>14373.24183718445</v>
+        <v>2309.518451053588</v>
       </c>
       <c r="S16">
-        <v>0.06056841959928338</v>
+        <v>0.04519007416953286</v>
       </c>
       <c r="T16">
-        <v>0.06056841959928339</v>
+        <v>0.04519007416953287</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>63.544816</v>
+        <v>56.20026033333333</v>
       </c>
       <c r="H17">
-        <v>190.634448</v>
+        <v>168.600781</v>
       </c>
       <c r="I17">
-        <v>0.2035752402950318</v>
+        <v>0.2088834604604656</v>
       </c>
       <c r="J17">
-        <v>0.2035752402950319</v>
+        <v>0.2088834604604657</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.234417666666667</v>
+        <v>0.6187626666666666</v>
       </c>
       <c r="N17">
-        <v>3.703253</v>
+        <v>1.856288</v>
       </c>
       <c r="O17">
-        <v>0.01461340152781021</v>
+        <v>0.029317200929767</v>
       </c>
       <c r="P17">
-        <v>0.01461340152781021</v>
+        <v>0.029317200929767</v>
       </c>
       <c r="Q17">
-        <v>78.44084349548267</v>
+        <v>34.77462295121421</v>
       </c>
       <c r="R17">
-        <v>705.9675914593441</v>
+        <v>312.9716065609279</v>
       </c>
       <c r="S17">
-        <v>0.002974926727551749</v>
+        <v>0.006123878381224512</v>
       </c>
       <c r="T17">
-        <v>0.002974926727551749</v>
+        <v>0.006123878381224514</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>63.544816</v>
+        <v>56.20026033333333</v>
       </c>
       <c r="H18">
-        <v>190.634448</v>
+        <v>168.600781</v>
       </c>
       <c r="I18">
-        <v>0.2035752402950318</v>
+        <v>0.2088834604604656</v>
       </c>
       <c r="J18">
-        <v>0.2035752402950319</v>
+        <v>0.2088834604604657</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.126792</v>
+        <v>3.130812333333334</v>
       </c>
       <c r="N18">
-        <v>6.380376</v>
+        <v>9.392437000000001</v>
       </c>
       <c r="O18">
-        <v>0.02517759288560723</v>
+        <v>0.1483390307695671</v>
       </c>
       <c r="P18">
-        <v>0.02517759288560722</v>
+        <v>0.1483390307695671</v>
       </c>
       <c r="Q18">
-        <v>135.146606310272</v>
+        <v>175.9524681881441</v>
       </c>
       <c r="R18">
-        <v>1216.319456792448</v>
+        <v>1583.572213693297</v>
       </c>
       <c r="S18">
-        <v>0.005125534521737974</v>
+        <v>0.03098557006849866</v>
       </c>
       <c r="T18">
-        <v>0.005125534521737974</v>
+        <v>0.03098557006849866</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>63.544816</v>
+        <v>56.20026033333333</v>
       </c>
       <c r="H19">
-        <v>190.634448</v>
+        <v>168.600781</v>
       </c>
       <c r="I19">
-        <v>0.2035752402950318</v>
+        <v>0.2088834604604656</v>
       </c>
       <c r="J19">
-        <v>0.2035752402950319</v>
+        <v>0.2088834604604657</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>53.838254</v>
+        <v>10.295635</v>
       </c>
       <c r="N19">
-        <v>161.514762</v>
+        <v>30.886905</v>
       </c>
       <c r="O19">
-        <v>0.6373531783474429</v>
+        <v>0.4878109431206931</v>
       </c>
       <c r="P19">
-        <v>0.6373531783474428</v>
+        <v>0.4878109431206932</v>
       </c>
       <c r="Q19">
-        <v>3421.141944191264</v>
+        <v>578.6173672969782</v>
       </c>
       <c r="R19">
-        <v>30790.27749772138</v>
+        <v>5207.556305672804</v>
       </c>
       <c r="S19">
-        <v>0.129749326434883</v>
+        <v>0.1018956378495337</v>
       </c>
       <c r="T19">
-        <v>0.129749326434883</v>
+        <v>0.1018956378495338</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.406739</v>
+        <v>2.421589666666667</v>
       </c>
       <c r="H20">
-        <v>7.220217</v>
+        <v>7.264769</v>
       </c>
       <c r="I20">
-        <v>0.00771034525070345</v>
+        <v>0.00900049263808521</v>
       </c>
       <c r="J20">
-        <v>0.00771034525070345</v>
+        <v>0.009000492638085212</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.626869333333333</v>
+        <v>1.981537333333333</v>
       </c>
       <c r="N20">
-        <v>4.880608</v>
+        <v>5.944611999999999</v>
       </c>
       <c r="O20">
-        <v>0.01925936046061199</v>
+        <v>0.09388596190542853</v>
       </c>
       <c r="P20">
-        <v>0.01925936046061199</v>
+        <v>0.09388596190542853</v>
       </c>
       <c r="Q20">
-        <v>3.915449872437333</v>
+        <v>4.798470330514221</v>
       </c>
       <c r="R20">
-        <v>35.239048851936</v>
+        <v>43.186232974628</v>
       </c>
       <c r="S20">
-        <v>0.0001484963184590655</v>
+        <v>0.000845019908949358</v>
       </c>
       <c r="T20">
-        <v>0.0001484963184590655</v>
+        <v>0.0008450199089493581</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.406739</v>
+        <v>2.421589666666667</v>
       </c>
       <c r="H21">
-        <v>7.220217</v>
+        <v>7.264769</v>
       </c>
       <c r="I21">
-        <v>0.00771034525070345</v>
+        <v>0.00900049263808521</v>
       </c>
       <c r="J21">
-        <v>0.00771034525070345</v>
+        <v>0.009000492638085212</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -1745,22 +1745,22 @@
         <v>1.538978</v>
       </c>
       <c r="O21">
-        <v>0.006072958951620726</v>
+        <v>0.02430577973487464</v>
       </c>
       <c r="P21">
-        <v>0.006072958951620726</v>
+        <v>0.02430577973487464</v>
       </c>
       <c r="Q21">
-        <v>1.234639457580667</v>
+        <v>1.242257740675778</v>
       </c>
       <c r="R21">
-        <v>11.111755118226</v>
+        <v>11.180319666082</v>
       </c>
       <c r="S21">
-        <v>4.682461021034587E-05</v>
+        <v>0.0002187639915666599</v>
       </c>
       <c r="T21">
-        <v>4.682461021034586E-05</v>
+        <v>0.00021876399156666</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2.406739</v>
+        <v>2.421589666666667</v>
       </c>
       <c r="H22">
-        <v>7.220217</v>
+        <v>7.264769</v>
       </c>
       <c r="I22">
-        <v>0.00771034525070345</v>
+        <v>0.00900049263808521</v>
       </c>
       <c r="J22">
-        <v>0.00771034525070345</v>
+        <v>0.009000492638085212</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>25.132292</v>
+        <v>4.566049333333334</v>
       </c>
       <c r="N22">
-        <v>75.39687599999999</v>
+        <v>13.698148</v>
       </c>
       <c r="O22">
-        <v>0.297523507826907</v>
+        <v>0.2163410835396696</v>
       </c>
       <c r="P22">
-        <v>0.297523507826907</v>
+        <v>0.2163410835396696</v>
       </c>
       <c r="Q22">
-        <v>60.48686731578799</v>
+        <v>11.05709788309022</v>
       </c>
       <c r="R22">
-        <v>544.3818058420919</v>
+        <v>99.51388094781201</v>
       </c>
       <c r="S22">
-        <v>0.002294008965545823</v>
+        <v>0.001947176329714173</v>
       </c>
       <c r="T22">
-        <v>0.002294008965545823</v>
+        <v>0.001947176329714174</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2.406739</v>
+        <v>2.421589666666667</v>
       </c>
       <c r="H23">
-        <v>7.220217</v>
+        <v>7.264769</v>
       </c>
       <c r="I23">
-        <v>0.00771034525070345</v>
+        <v>0.00900049263808521</v>
       </c>
       <c r="J23">
-        <v>0.00771034525070345</v>
+        <v>0.009000492638085212</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.234417666666667</v>
+        <v>0.6187626666666666</v>
       </c>
       <c r="N23">
-        <v>3.703253</v>
+        <v>1.856288</v>
       </c>
       <c r="O23">
-        <v>0.01461340152781021</v>
+        <v>0.029317200929767</v>
       </c>
       <c r="P23">
-        <v>0.01461340152781021</v>
+        <v>0.029317200929767</v>
       </c>
       <c r="Q23">
-        <v>2.970921140655666</v>
+        <v>1.498389279719111</v>
       </c>
       <c r="R23">
-        <v>26.738290265901</v>
+        <v>13.485503517472</v>
       </c>
       <c r="S23">
-        <v>0.000112674371066574</v>
+        <v>0.0002638692511376328</v>
       </c>
       <c r="T23">
-        <v>0.000112674371066574</v>
+        <v>0.0002638692511376328</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2.406739</v>
+        <v>2.421589666666667</v>
       </c>
       <c r="H24">
-        <v>7.220217</v>
+        <v>7.264769</v>
       </c>
       <c r="I24">
-        <v>0.00771034525070345</v>
+        <v>0.00900049263808521</v>
       </c>
       <c r="J24">
-        <v>0.00771034525070345</v>
+        <v>0.009000492638085212</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.126792</v>
+        <v>3.130812333333334</v>
       </c>
       <c r="N24">
-        <v>6.380376</v>
+        <v>9.392437000000001</v>
       </c>
       <c r="O24">
-        <v>0.02517759288560723</v>
+        <v>0.1483390307695671</v>
       </c>
       <c r="P24">
-        <v>0.02517759288560722</v>
+        <v>0.1483390307695671</v>
       </c>
       <c r="Q24">
-        <v>5.118633251288</v>
+        <v>7.581542794672556</v>
       </c>
       <c r="R24">
-        <v>46.067699261592</v>
+        <v>68.23388515205301</v>
       </c>
       <c r="S24">
-        <v>0.0001941279337296866</v>
+        <v>0.001335124354382184</v>
       </c>
       <c r="T24">
-        <v>0.0001941279337296866</v>
+        <v>0.001335124354382184</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2.406739</v>
+        <v>2.421589666666667</v>
       </c>
       <c r="H25">
-        <v>7.220217</v>
+        <v>7.264769</v>
       </c>
       <c r="I25">
-        <v>0.00771034525070345</v>
+        <v>0.00900049263808521</v>
       </c>
       <c r="J25">
-        <v>0.00771034525070345</v>
+        <v>0.009000492638085212</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>53.838254</v>
+        <v>10.295635</v>
       </c>
       <c r="N25">
-        <v>161.514762</v>
+        <v>30.886905</v>
       </c>
       <c r="O25">
-        <v>0.6373531783474429</v>
+        <v>0.4878109431206931</v>
       </c>
       <c r="P25">
-        <v>0.6373531783474428</v>
+        <v>0.4878109431206932</v>
       </c>
       <c r="Q25">
-        <v>129.574625593706</v>
+        <v>24.93180332777166</v>
       </c>
       <c r="R25">
-        <v>1166.171630343354</v>
+        <v>224.386229949945</v>
       </c>
       <c r="S25">
-        <v>0.004914213051691955</v>
+        <v>0.004390538802335202</v>
       </c>
       <c r="T25">
-        <v>0.004914213051691954</v>
+        <v>0.004390538802335203</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>164.0922063333333</v>
+        <v>181.9836886666667</v>
       </c>
       <c r="H26">
-        <v>492.276619</v>
+        <v>545.951066</v>
       </c>
       <c r="I26">
-        <v>0.5256937141001443</v>
+        <v>0.6763915756010649</v>
       </c>
       <c r="J26">
-        <v>0.5256937141001443</v>
+        <v>0.6763915756010649</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.626869333333333</v>
+        <v>1.981537333333333</v>
       </c>
       <c r="N26">
-        <v>4.880608</v>
+        <v>5.944611999999999</v>
       </c>
       <c r="O26">
-        <v>0.01925936046061199</v>
+        <v>0.09388596190542853</v>
       </c>
       <c r="P26">
-        <v>0.01925936046061199</v>
+        <v>0.09388596190542853</v>
       </c>
       <c r="Q26">
-        <v>266.9565783227058</v>
+        <v>360.6074731507102</v>
       </c>
       <c r="R26">
-        <v>2402.609204904352</v>
+        <v>3245.467258356392</v>
       </c>
       <c r="S26">
-        <v>0.01012452473173259</v>
+        <v>0.06350367370003436</v>
       </c>
       <c r="T26">
-        <v>0.01012452473173258</v>
+        <v>0.06350367370003436</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>164.0922063333333</v>
+        <v>181.9836886666667</v>
       </c>
       <c r="H27">
-        <v>492.276619</v>
+        <v>545.951066</v>
       </c>
       <c r="I27">
-        <v>0.5256937141001443</v>
+        <v>0.6763915756010649</v>
       </c>
       <c r="J27">
-        <v>0.5256937141001443</v>
+        <v>0.6763915756010649</v>
       </c>
       <c r="K27">
         <v>2</v>
@@ -2117,22 +2117,22 @@
         <v>1.538978</v>
       </c>
       <c r="O27">
-        <v>0.006072958951620726</v>
+        <v>0.02430577973487464</v>
       </c>
       <c r="P27">
-        <v>0.006072958951620726</v>
+        <v>0.02430577973487464</v>
       </c>
       <c r="Q27">
-        <v>84.17809850615357</v>
+        <v>93.35629773894979</v>
       </c>
       <c r="R27">
-        <v>757.6028865553822</v>
+        <v>840.206679650548</v>
       </c>
       <c r="S27">
-        <v>0.003192516346855218</v>
+        <v>0.01644022465108429</v>
       </c>
       <c r="T27">
-        <v>0.003192516346855218</v>
+        <v>0.01644022465108429</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>164.0922063333333</v>
+        <v>181.9836886666667</v>
       </c>
       <c r="H28">
-        <v>492.276619</v>
+        <v>545.951066</v>
       </c>
       <c r="I28">
-        <v>0.5256937141001443</v>
+        <v>0.6763915756010649</v>
       </c>
       <c r="J28">
-        <v>0.5256937141001443</v>
+        <v>0.6763915756010649</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>25.132292</v>
+        <v>4.566049333333334</v>
       </c>
       <c r="N28">
-        <v>75.39687599999999</v>
+        <v>13.698148</v>
       </c>
       <c r="O28">
-        <v>0.297523507826907</v>
+        <v>0.2163410835396696</v>
       </c>
       <c r="P28">
-        <v>0.297523507826907</v>
+        <v>0.2163410835396696</v>
       </c>
       <c r="Q28">
-        <v>4124.013244493583</v>
+        <v>830.9465003139743</v>
       </c>
       <c r="R28">
-        <v>37116.11920044224</v>
+        <v>7478.518502825768</v>
       </c>
       <c r="S28">
-        <v>0.1564062378616301</v>
+        <v>0.1463312863626387</v>
       </c>
       <c r="T28">
-        <v>0.1564062378616301</v>
+        <v>0.1463312863626387</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>164.0922063333333</v>
+        <v>181.9836886666667</v>
       </c>
       <c r="H29">
-        <v>492.276619</v>
+        <v>545.951066</v>
       </c>
       <c r="I29">
-        <v>0.5256937141001443</v>
+        <v>0.6763915756010649</v>
       </c>
       <c r="J29">
-        <v>0.5256937141001443</v>
+        <v>0.6763915756010649</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1.234417666666667</v>
+        <v>0.6187626666666666</v>
       </c>
       <c r="N29">
-        <v>3.703253</v>
+        <v>1.856288</v>
       </c>
       <c r="O29">
-        <v>0.01461340152781021</v>
+        <v>0.029317200929767</v>
       </c>
       <c r="P29">
-        <v>0.01461340152781021</v>
+        <v>0.029317200929767</v>
       </c>
       <c r="Q29">
-        <v>202.5583184601786</v>
+        <v>112.6047124892231</v>
       </c>
       <c r="R29">
-        <v>1823.024866141607</v>
+        <v>1013.442412403008</v>
       </c>
       <c r="S29">
-        <v>0.007682173324791273</v>
+        <v>0.01982990772909811</v>
       </c>
       <c r="T29">
-        <v>0.007682173324791273</v>
+        <v>0.01982990772909811</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>164.0922063333333</v>
+        <v>181.9836886666667</v>
       </c>
       <c r="H30">
-        <v>492.276619</v>
+        <v>545.951066</v>
       </c>
       <c r="I30">
-        <v>0.5256937141001443</v>
+        <v>0.6763915756010649</v>
       </c>
       <c r="J30">
-        <v>0.5256937141001443</v>
+        <v>0.6763915756010649</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>2.126792</v>
+        <v>3.130812333333334</v>
       </c>
       <c r="N30">
-        <v>6.380376</v>
+        <v>9.392437000000001</v>
       </c>
       <c r="O30">
-        <v>0.02517759288560723</v>
+        <v>0.1483390307695671</v>
       </c>
       <c r="P30">
-        <v>0.02517759288560722</v>
+        <v>0.1483390307695671</v>
       </c>
       <c r="Q30">
-        <v>348.9899916920827</v>
+        <v>569.7567769430935</v>
       </c>
       <c r="R30">
-        <v>3140.909925228744</v>
+        <v>5127.810992487843</v>
       </c>
       <c r="S30">
-        <v>0.01323570231613623</v>
+        <v>0.1003352707453623</v>
       </c>
       <c r="T30">
-        <v>0.01323570231613623</v>
+        <v>0.1003352707453623</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>164.0922063333333</v>
+        <v>181.9836886666667</v>
       </c>
       <c r="H31">
-        <v>492.276619</v>
+        <v>545.951066</v>
       </c>
       <c r="I31">
-        <v>0.5256937141001443</v>
+        <v>0.6763915756010649</v>
       </c>
       <c r="J31">
-        <v>0.5256937141001443</v>
+        <v>0.6763915756010649</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>53.838254</v>
+        <v>10.295635</v>
       </c>
       <c r="N31">
-        <v>161.514762</v>
+        <v>30.886905</v>
       </c>
       <c r="O31">
-        <v>0.6373531783474429</v>
+        <v>0.4878109431206931</v>
       </c>
       <c r="P31">
-        <v>0.6373531783474428</v>
+        <v>0.4878109431206932</v>
       </c>
       <c r="Q31">
-        <v>8834.437883994409</v>
+        <v>1873.637634465636</v>
       </c>
       <c r="R31">
-        <v>79509.94095594969</v>
+        <v>16862.73871019073</v>
       </c>
       <c r="S31">
-        <v>0.3350525595189989</v>
+        <v>0.3299512124128471</v>
       </c>
       <c r="T31">
-        <v>0.3350525595189989</v>
+        <v>0.3299512124128471</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>80.516767</v>
+        <v>24.982726</v>
       </c>
       <c r="H32">
-        <v>241.550301</v>
+        <v>74.948178</v>
       </c>
       <c r="I32">
-        <v>0.257947401874672</v>
+        <v>0.09285505489946065</v>
       </c>
       <c r="J32">
-        <v>0.257947401874672</v>
+        <v>0.09285505489946067</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1.626869333333333</v>
+        <v>1.981537333333333</v>
       </c>
       <c r="N32">
-        <v>4.880608</v>
+        <v>5.944611999999999</v>
       </c>
       <c r="O32">
-        <v>0.01925936046061199</v>
+        <v>0.09388596190542853</v>
       </c>
       <c r="P32">
-        <v>0.01925936046061199</v>
+        <v>0.09388596190542853</v>
       </c>
       <c r="Q32">
-        <v>130.9902590514453</v>
+        <v>49.50420425743732</v>
       </c>
       <c r="R32">
-        <v>1178.912331463008</v>
+        <v>445.537838316936</v>
       </c>
       <c r="S32">
-        <v>0.00496790199258265</v>
+        <v>0.008717786147017237</v>
       </c>
       <c r="T32">
-        <v>0.004967901992582649</v>
+        <v>0.008717786147017239</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>80.516767</v>
+        <v>24.982726</v>
       </c>
       <c r="H33">
-        <v>241.550301</v>
+        <v>74.948178</v>
       </c>
       <c r="I33">
-        <v>0.257947401874672</v>
+        <v>0.09285505489946065</v>
       </c>
       <c r="J33">
-        <v>0.257947401874672</v>
+        <v>0.09285505489946067</v>
       </c>
       <c r="K33">
         <v>2</v>
@@ -2489,22 +2489,22 @@
         <v>1.538978</v>
       </c>
       <c r="O33">
-        <v>0.006072958951620726</v>
+        <v>0.02430577973487464</v>
       </c>
       <c r="P33">
-        <v>0.006072958951620726</v>
+        <v>0.02430577973487464</v>
       </c>
       <c r="Q33">
-        <v>41.30451101470867</v>
+        <v>12.81595523134267</v>
       </c>
       <c r="R33">
-        <v>371.740599132378</v>
+        <v>115.343597082084</v>
       </c>
       <c r="S33">
-        <v>0.001566503983262098</v>
+        <v>0.002256914511655983</v>
       </c>
       <c r="T33">
-        <v>0.001566503983262098</v>
+        <v>0.002256914511655984</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>80.516767</v>
+        <v>24.982726</v>
       </c>
       <c r="H34">
-        <v>241.550301</v>
+        <v>74.948178</v>
       </c>
       <c r="I34">
-        <v>0.257947401874672</v>
+        <v>0.09285505489946065</v>
       </c>
       <c r="J34">
-        <v>0.257947401874672</v>
+        <v>0.09285505489946067</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>25.132292</v>
+        <v>4.566049333333334</v>
       </c>
       <c r="N34">
-        <v>75.39687599999999</v>
+        <v>13.698148</v>
       </c>
       <c r="O34">
-        <v>0.297523507826907</v>
+        <v>0.2163410835396696</v>
       </c>
       <c r="P34">
-        <v>0.297523507826907</v>
+        <v>0.2163410835396696</v>
       </c>
       <c r="Q34">
-        <v>2023.570899139964</v>
+        <v>114.0723593971493</v>
       </c>
       <c r="R34">
-        <v>18212.13809225967</v>
+        <v>1026.651234574344</v>
       </c>
       <c r="S34">
-        <v>0.0767454158405893</v>
+        <v>0.02008836318908482</v>
       </c>
       <c r="T34">
-        <v>0.0767454158405893</v>
+        <v>0.02008836318908483</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>80.516767</v>
+        <v>24.982726</v>
       </c>
       <c r="H35">
-        <v>241.550301</v>
+        <v>74.948178</v>
       </c>
       <c r="I35">
-        <v>0.257947401874672</v>
+        <v>0.09285505489946065</v>
       </c>
       <c r="J35">
-        <v>0.257947401874672</v>
+        <v>0.09285505489946067</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>1.234417666666667</v>
+        <v>0.6187626666666666</v>
       </c>
       <c r="N35">
-        <v>3.703253</v>
+        <v>1.856288</v>
       </c>
       <c r="O35">
-        <v>0.01461340152781021</v>
+        <v>0.029317200929767</v>
       </c>
       <c r="P35">
-        <v>0.01461340152781021</v>
+        <v>0.029317200929767</v>
       </c>
       <c r="Q35">
-        <v>99.39131964768367</v>
+        <v>15.45837816036266</v>
       </c>
       <c r="R35">
-        <v>894.521876829153</v>
+        <v>139.125403443264</v>
       </c>
       <c r="S35">
-        <v>0.003769488956650007</v>
+        <v>0.002722250301832034</v>
       </c>
       <c r="T35">
-        <v>0.003769488956650007</v>
+        <v>0.002722250301832034</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>80.516767</v>
+        <v>24.982726</v>
       </c>
       <c r="H36">
-        <v>241.550301</v>
+        <v>74.948178</v>
       </c>
       <c r="I36">
-        <v>0.257947401874672</v>
+        <v>0.09285505489946065</v>
       </c>
       <c r="J36">
-        <v>0.257947401874672</v>
+        <v>0.09285505489946067</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>2.126792</v>
+        <v>3.130812333333334</v>
       </c>
       <c r="N36">
-        <v>6.380376</v>
+        <v>9.392437000000001</v>
       </c>
       <c r="O36">
-        <v>0.02517759288560723</v>
+        <v>0.1483390307695671</v>
       </c>
       <c r="P36">
-        <v>0.02517759288560722</v>
+        <v>0.1483390307695671</v>
       </c>
       <c r="Q36">
-        <v>171.242415921464</v>
+        <v>78.21622668108733</v>
       </c>
       <c r="R36">
-        <v>1541.181743293176</v>
+        <v>703.9460401297861</v>
       </c>
       <c r="S36">
-        <v>0.00649449467030061</v>
+        <v>0.01377402884584093</v>
       </c>
       <c r="T36">
-        <v>0.006494494670300609</v>
+        <v>0.01377402884584093</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>80.516767</v>
+        <v>24.982726</v>
       </c>
       <c r="H37">
-        <v>241.550301</v>
+        <v>74.948178</v>
       </c>
       <c r="I37">
-        <v>0.257947401874672</v>
+        <v>0.09285505489946065</v>
       </c>
       <c r="J37">
-        <v>0.257947401874672</v>
+        <v>0.09285505489946067</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>53.838254</v>
+        <v>10.295635</v>
       </c>
       <c r="N37">
-        <v>161.514762</v>
+        <v>30.886905</v>
       </c>
       <c r="O37">
-        <v>0.6373531783474429</v>
+        <v>0.4878109431206931</v>
       </c>
       <c r="P37">
-        <v>0.6373531783474428</v>
+        <v>0.4878109431206932</v>
       </c>
       <c r="Q37">
-        <v>4334.882153004818</v>
+        <v>257.21302820101</v>
       </c>
       <c r="R37">
-        <v>39013.93937704336</v>
+        <v>2314.91725380909</v>
       </c>
       <c r="S37">
-        <v>0.1644035964312874</v>
+        <v>0.04529571190402964</v>
       </c>
       <c r="T37">
-        <v>0.1644035964312873</v>
+        <v>0.04529571190402965</v>
       </c>
     </row>
   </sheetData>
